--- a/data/trans_bre/P16A06-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.4541915064489193</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8883109229777377</v>
+        <v>0.8883109229777364</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4996031097283228</v>
@@ -649,7 +649,7 @@
         <v>0.1701306356453616</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.182073829314706</v>
+        <v>0.1820738293147057</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.085083363032895</v>
+        <v>-1.045054931622843</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9773824286451778</v>
+        <v>-1.018064098695079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.896531922223187</v>
+        <v>-1.977267387289118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.603340237753994</v>
+        <v>-1.873303376432781</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.449421416658764</v>
+        <v>-0.3976041384775859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4327664052398056</v>
+        <v>-0.4682862021109425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5388856126412186</v>
+        <v>-0.559380514866453</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2615176211179839</v>
+        <v>-0.2871970751072068</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.785078390377033</v>
+        <v>4.082061079289166</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.577920545377139</v>
+        <v>4.638158300947157</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.411950338514754</v>
+        <v>3.072837826588979</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.468716752954358</v>
+        <v>3.228051658662793</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.224000846598383</v>
+        <v>3.186668192495278</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.488282595464256</v>
+        <v>4.576872410442678</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.05178013919295</v>
+        <v>2.101837024665869</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9356428574191481</v>
+        <v>0.9022746264318113</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.24407387922637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.854575093158055</v>
+        <v>3.854575093158056</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.01074849999387844</v>
@@ -749,7 +749,7 @@
         <v>0.585680390459161</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.9341548276488051</v>
+        <v>0.9341548276488054</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.368039418428284</v>
+        <v>-2.298937311837077</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.611184338139191</v>
+        <v>-2.79231839223437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.099632296787463</v>
+        <v>-0.8801212130191897</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8619942023029009</v>
+        <v>1.202442089957108</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7544178792217027</v>
+        <v>-0.7730339244722264</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7428573129814466</v>
+        <v>-0.7766295975196414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3903334467196864</v>
+        <v>-0.3412159905673622</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1262473569781779</v>
+        <v>0.1585171977783265</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.996143486807255</v>
+        <v>1.860297384639247</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.990291764292299</v>
+        <v>1.933662546749814</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.652764464164369</v>
+        <v>3.821513421822101</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.441508375703566</v>
+        <v>6.85921384053312</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.197787905329619</v>
+        <v>1.882659967453563</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.072836147185745</v>
+        <v>1.969069483601165</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.945310101163382</v>
+        <v>3.490499341264519</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.211842121657259</v>
+        <v>2.28124957608458</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.445362412133725</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.095271212550203</v>
+        <v>6.095271212550204</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.78628292821143</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.08283246374474096</v>
+        <v>-0.06673939835925956</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.087695889485736</v>
+        <v>-1.21025036684474</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.095546469022276</v>
+        <v>2.403986651643845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.47269972975161</v>
+        <v>2.321816523534772</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2305515200592956</v>
+        <v>-0.2614634424016816</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2971507762970764</v>
+        <v>-0.3478424713469732</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5607563113982158</v>
+        <v>0.6249370292193444</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3033680724191765</v>
+        <v>0.2571791742804543</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.514781015195682</v>
+        <v>6.083439165378794</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.044525453121586</v>
+        <v>4.988228087751926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.15140596584775</v>
+        <v>11.57477442225961</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.43429892978984</v>
+        <v>11.05700074806229</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.382262459252555</v>
+        <v>6.193766430512483</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.167751137671412</v>
+        <v>2.130658237490804</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>6.990921058847214</v>
+        <v>7.576994070831612</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.388483180799071</v>
+        <v>2.319584870695672</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.242669261092652</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.268373583343172</v>
+        <v>1.26837358334317</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4094400108034204</v>
@@ -949,7 +949,7 @@
         <v>0.7006307305579136</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2135017387497774</v>
+        <v>0.2135017387497772</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4529336593506634</v>
+        <v>-0.3778504774987446</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.817382888597278</v>
+        <v>1.069319079724921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3030526604224645</v>
+        <v>0.4679814765616119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.6960796668042341</v>
+        <v>-0.5347716046314642</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1604756514534773</v>
+        <v>-0.1515365424401096</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2569692412706727</v>
+        <v>0.3686863103258867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0748203695290461</v>
+        <v>0.1091020643608802</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1062271156895121</v>
+        <v>-0.08162678266248743</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.592541811129221</v>
+        <v>2.908144450638214</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.316611990612191</v>
+        <v>4.575607366765965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.213988984187409</v>
+        <v>4.310174737168007</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.192868611827986</v>
+        <v>3.445443423377323</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.390988094615588</v>
+        <v>1.396016518083666</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.607484620091587</v>
+        <v>4.153411881395288</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.799402803890358</v>
+        <v>1.836081544531748</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6354229709220761</v>
+        <v>0.6939734828031623</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.845504284759682</v>
+        <v>-1.74147982094237</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.885923567317639</v>
+        <v>4.216076263599846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.256342160957816</v>
+        <v>4.351759520359947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.42479794639851</v>
+        <v>7.227470621870157</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.440657440646792</v>
+        <v>-0.4146583847306121</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.168105227282911</v>
+        <v>1.190469531915301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9585898572376255</v>
+        <v>0.9463374068125842</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.03812168713783</v>
+        <v>1.026237793945895</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.30416026749752</v>
+        <v>3.155688015955314</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.868481956424514</v>
+        <v>9.136988981375852</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.400926802574029</v>
+        <v>9.629657950419881</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.57276026489617</v>
+        <v>12.56698532572816</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.065177139340606</v>
+        <v>1.96249569618692</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7.151170508357464</v>
+        <v>7.183300513961605</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.357503723169956</v>
+        <v>4.481762134651906</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.248127975464703</v>
+        <v>3.202901001333544</v>
       </c>
     </row>
     <row r="19">
@@ -1153,7 +1153,7 @@
         <v>12.36670100772873</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2.303674114495921</v>
+        <v>2.30367411449592</v>
       </c>
     </row>
     <row r="20">
@@ -1164,24 +1164,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.457756724966443</v>
+        <v>4.550053892519003</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.888371942401352</v>
+        <v>6.95468868775599</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.185857450108414</v>
+        <v>7.249859922571414</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.806089492590544</v>
+        <v>3.090802276467136</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>2.642346612637217</v>
+        <v>2.688052438483563</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3958417602265396</v>
+        <v>0.1662895658576277</v>
       </c>
     </row>
     <row r="21">
@@ -1192,22 +1192,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.046075745191144</v>
+        <v>7.22127106510059</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.39342437502337</v>
+        <v>10.36026893373619</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.56389651191879</v>
+        <v>11.64967859459505</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.71300245382773</v>
+        <v>11.82192327045487</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>6.645943724221605</v>
+        <v>7.207681230797158</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1231,7 @@
         <v>4.886698923224611</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.195846313968559</v>
+        <v>5.195846313968558</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>1.096851511965854</v>
@@ -1254,28 +1254,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.330389922148056</v>
+        <v>1.349068638900383</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.349468667567384</v>
+        <v>3.255196417161406</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.739028341784016</v>
+        <v>3.885880567325473</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.02264921785596</v>
+        <v>4.145294750013178</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5615272514436781</v>
+        <v>0.5424357404318817</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.374653315753843</v>
+        <v>1.368962159624486</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.221155468202701</v>
+        <v>1.248837343578737</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6847095639471187</v>
+        <v>0.6985457782561367</v>
       </c>
     </row>
     <row r="24">
@@ -1286,28 +1286,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.007521815009817</v>
+        <v>3.007755233368961</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.365683324783533</v>
+        <v>5.276115398360928</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.972950716876616</v>
+        <v>5.996981319165486</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.252899357150856</v>
+        <v>6.415245820795151</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.843019827819879</v>
+        <v>1.790461172881245</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>3.283713828772249</v>
+        <v>3.231316081526047</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.661001457044657</v>
+        <v>2.63396620215929</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.346631324919038</v>
+        <v>1.344880492452303</v>
       </c>
     </row>
     <row r="25">
